--- a/public/u_excel/1.LM.1.xlsx
+++ b/public/u_excel/1.LM.1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zizek\Desktop\Repositorio\dev-bomberos\public\u_excel\geografico\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zizek\Desktop\Repositorio\dev-bomberos\public\u_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D78C31B-D0C0-4F36-9A96-65B7B927AEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C2EEB4-836C-40ED-ACE5-5C9967E16B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t xml:space="preserve">Localidad </t>
   </si>
@@ -37,27 +37,6 @@
     <t xml:space="preserve">Total del municipio </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Fuente: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>XIII Censo de Población y Vivienda 2010, Encuesta Intercensal 2015 y Censo de Población y Vivienda 2020, INEGI.</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Población </t>
   </si>
   <si>
@@ -68,7 +47,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,13 +199,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="5" tint="-0.499984740745262"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <color theme="5" tint="-0.499984740745262"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -670,11 +642,11 @@
     <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="18" fillId="34" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1029,7 +1001,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1042,8 +1014,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>7</v>
+      <c r="A1" s="16" t="s">
+        <v>6</v>
       </c>
       <c r="B1" s="18">
         <v>2010</v>
@@ -1063,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>1</v>
@@ -1156,15 +1128,13 @@
     </row>
     <row r="6" spans="1:7" ht="9.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F9" s="15"/>

--- a/public/u_excel/1.LM.1.xlsx
+++ b/public/u_excel/1.LM.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zizek\Desktop\Repositorio\dev-bomberos\public\u_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SIGEM\1.- Geográfico\Localidades del Municipio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C2EEB4-836C-40ED-ACE5-5C9967E16B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCA5102-9066-4E9D-8C6F-31B35EA1A3E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.lm.1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t xml:space="preserve">Localidad </t>
   </si>
@@ -37,17 +37,44 @@
     <t xml:space="preserve">Total del municipio </t>
   </si>
   <si>
-    <t xml:space="preserve">Población </t>
+    <t>Población 2010</t>
   </si>
   <si>
-    <t>Lustro:</t>
+    <t>Población 2015</t>
+  </si>
+  <si>
+    <t>Población 2020</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Fuente: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>XIII Censo de Población y Vivienda 2010, Encuesta Intercensal 2015 y Censo de Población y Vivienda 2020, INEGI.</t>
+    </r>
+  </si>
+  <si>
+    <t>1.LM.1 Población en el Municipio de Juárez 2010, 2015 y 2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,13 +231,20 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <color theme="5" tint="-0.499984740745262"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -402,20 +436,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -550,15 +572,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -605,7 +618,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -616,6 +629,9 @@
     </xf>
     <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -642,17 +658,11 @@
     <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="18" fillId="34" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -711,6 +721,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>800871</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>121541</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Logo2.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="66675" y="57150"/>
+          <a:ext cx="4477521" cy="969266"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -998,158 +1057,158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="C9:I22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" style="1" customWidth="1"/>
-    <col min="2" max="5" width="17.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
+    <col min="4" max="7" width="17.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+    <row r="9" spans="3:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="C9" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="3:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="18">
-        <v>2010</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="19">
-        <v>2015</v>
-      </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="18">
-        <v>2020</v>
-      </c>
-      <c r="G1" s="18"/>
+      <c r="G11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="8" t="s">
+    <row r="12" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1321004</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.99160000000000004</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1382753</v>
+      </c>
+      <c r="G12" s="14">
+        <f>F12/F14</f>
+        <v>0.99394255236561768</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1501552</v>
+      </c>
+      <c r="I12" s="14">
+        <f>H12/H14</f>
+        <v>0.99279447254454689</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7">
+        <v>11127</v>
+      </c>
+      <c r="E13" s="8">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="F13" s="7">
+        <v>8427</v>
+      </c>
+      <c r="G13" s="15">
+        <f>F13/F14</f>
+        <v>6.0574476343823232E-3</v>
+      </c>
+      <c r="H13" s="7">
+        <v>10898</v>
+      </c>
+      <c r="I13" s="15">
+        <f>H13/H14</f>
+        <v>7.2055274554530726E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="11">
+        <v>1332131</v>
+      </c>
+      <c r="E14" s="12">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="F14" s="11">
+        <v>1391180</v>
+      </c>
+      <c r="G14" s="12">
         <v>1</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="H14" s="11">
+        <v>1512450</v>
+      </c>
+      <c r="I14" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1321004</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0.99160000000000004</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1382753</v>
-      </c>
-      <c r="E3" s="13">
-        <f>D3/D5</f>
-        <v>0.99394255236561768</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1501552</v>
-      </c>
-      <c r="G3" s="13">
-        <f>F3/F5</f>
-        <v>0.99279447254454689</v>
-      </c>
+    <row r="15" spans="3:9" ht="9.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C16" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6">
-        <v>11127</v>
-      </c>
-      <c r="C4" s="7">
-        <v>8.3999999999999995E-3</v>
-      </c>
-      <c r="D4" s="6">
-        <v>8427</v>
-      </c>
-      <c r="E4" s="14">
-        <f>D4/D5</f>
-        <v>6.0574476343823232E-3</v>
-      </c>
-      <c r="F4" s="6">
-        <v>10898</v>
-      </c>
-      <c r="G4" s="14">
-        <f>F4/F5</f>
-        <v>7.2055274554530726E-3</v>
-      </c>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="H18" s="16"/>
     </row>
-    <row r="5" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10">
-        <v>1332131</v>
-      </c>
-      <c r="C5" s="11">
-        <v>1</v>
-      </c>
-      <c r="D5" s="10">
-        <v>1391180</v>
-      </c>
-      <c r="E5" s="11">
-        <v>1</v>
-      </c>
-      <c r="F5" s="10">
-        <v>1512450</v>
-      </c>
-      <c r="G5" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="9.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F9" s="15"/>
-    </row>
-    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+    <row r="22" spans="3:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="C22" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B1:C1"/>
+  <mergeCells count="2">
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C16:I16"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="88" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/public/u_excel/1.LM.1.xlsx
+++ b/public/u_excel/1.LM.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SIGEM\1.- Geográfico\Localidades del Municipio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zizek\Desktop\Repositorio\dev-bomberos\public\u_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCA5102-9066-4E9D-8C6F-31B35EA1A3E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5E9DAC-25D4-4D82-963C-385F5249040B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.lm.1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t xml:space="preserve">Localidad </t>
   </si>
@@ -35,15 +35,6 @@
   </si>
   <si>
     <t xml:space="preserve">Total del municipio </t>
-  </si>
-  <si>
-    <t>Población 2010</t>
-  </si>
-  <si>
-    <t>Población 2015</t>
-  </si>
-  <si>
-    <t>Población 2020</t>
   </si>
   <si>
     <r>
@@ -69,6 +60,9 @@
   <si>
     <t>1.LM.1 Población en el Municipio de Juárez 2010, 2015 y 2020</t>
   </si>
+  <si>
+    <t>Población</t>
+  </si>
 </sst>
 </file>
 
@@ -437,7 +431,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -553,22 +547,191 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="dashDot">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin">
+      <top style="dashDot">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashDot">
         <color auto="1"/>
-      </bottom>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDot">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashDot">
         <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDot">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dashDot">
+        <color auto="1"/>
+      </right>
+      <top style="dashDot">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dashDot">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dashDotDot">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dashDot">
+        <color auto="1"/>
+      </right>
+      <top style="dashDot">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,45 +781,13 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="18" fillId="34" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -664,6 +795,73 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="18" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="34" borderId="11" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="20" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="34" borderId="22" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="11" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1060,7 +1258,7 @@
   <dimension ref="C9:I22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1074,70 +1272,80 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="3:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="C9" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
+    <row r="9" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+    <row r="10" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="2"/>
+      <c r="D10" s="24">
+        <v>2010</v>
+      </c>
+      <c r="E10" s="25"/>
+      <c r="F10" s="24">
+        <v>2015</v>
+      </c>
+      <c r="G10" s="25"/>
+      <c r="H10" s="24">
+        <v>2020</v>
+      </c>
+      <c r="I10" s="25"/>
     </row>
-    <row r="11" spans="3:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="9" t="s">
+    <row r="11" spans="3:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="9" t="s">
+      <c r="F11" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="17" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="26">
         <v>1321004</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="27">
         <v>0.99160000000000004</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="30">
         <v>1382753</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="31">
         <f>F12/F14</f>
         <v>0.99394255236561768</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="9">
         <v>1501552</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="19">
         <f>H12/H14</f>
         <v>0.99279447254454689</v>
       </c>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="7">
@@ -1146,66 +1354,69 @@
       <c r="E13" s="8">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="10">
         <v>8427</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="11">
         <f>F13/F14</f>
         <v>6.0574476343823232E-3</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="10">
         <v>10898</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="21">
         <f>H13/H14</f>
         <v>7.2055274554530726E-3</v>
       </c>
     </row>
     <row r="14" spans="3:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="12">
         <v>1332131</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="13">
         <v>1</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="14">
         <v>1391180</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="13">
         <v>1</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="14">
         <v>1512450</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="3:9" ht="9.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="3:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C16" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
+      <c r="C16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="H18" s="16"/>
+      <c r="H18" s="4"/>
     </row>
     <row r="22" spans="3:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="C22" s="13"/>
+      <c r="C22" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="C16:I16"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="88" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
